--- a/example_control.xlsx
+++ b/example_control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Google Drive\Sam_Jennings\PhD\Laboratory\new_lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Desktop\laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>target_temp</t>
   </si>
@@ -39,9 +39,6 @@
     <t>offset</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>fo2_gas</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>target_temp in degrees C. hold_length in hours. heat_rate in degrees C/min. interval in mins</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU25"/>
+  <dimension ref="A1:IU18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1348,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1374,21 +1377,21 @@
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1397,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
@@ -1420,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -1443,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1466,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -1489,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -1512,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
       </c>
       <c r="D9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -1535,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -1558,54 +1561,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>350</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>250</v>
-      </c>
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1647,77 +1622,14 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example_control.xlsx
+++ b/example_control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Desktop\laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Google Drive\Sam_Jennings\PhD\laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:IU18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1385,13 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1408,13 +1408,13 @@
         <v>75</v>
       </c>
       <c r="B4" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
@@ -1431,13 +1431,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -1454,13 +1454,13 @@
         <v>200</v>
       </c>
       <c r="B6" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1477,13 +1477,13 @@
         <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -1500,13 +1500,13 @@
         <v>400</v>
       </c>
       <c r="B8" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -1523,13 +1523,13 @@
         <v>500</v>
       </c>
       <c r="B9" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -1546,13 +1546,13 @@
         <v>600</v>
       </c>
       <c r="B10" s="4">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
       </c>
       <c r="D10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>

--- a/example_control.xlsx
+++ b/example_control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Google Drive\Sam_Jennings\PhD\laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Desktop\laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>target_temp</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>buffer</t>
-  </si>
-  <si>
-    <t>iw</t>
   </si>
   <si>
     <t>offset</t>
@@ -48,10 +45,10 @@
     <t>target_temp in degrees C. hold_length in hours. heat_rate in degrees C/min. interval in mins</t>
   </si>
   <si>
-    <t>h2</t>
+    <t>co</t>
   </si>
   <si>
-    <t>co</t>
+    <t>qfm</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU18"/>
+  <dimension ref="A1:IU14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1345,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1374,195 +1371,139 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="B3" s="4">
-        <v>0.02</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="B4" s="4">
-        <v>0.02</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B5" s="4">
-        <v>0.02</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="B6" s="4">
-        <v>0.02</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>300</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>400</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>500</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>600</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1586,50 +1527,14 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
